--- a/4. Data Visualization/Lesson 1/anscombes-quartet.xlsx
+++ b/4. Data Visualization/Lesson 1/anscombes-quartet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Career\Artificial Intelligence\Data Analysis\Udacity Data Analysis\Data-Anlaysis-Advanced\4. Data Visualization\Lesson 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634DA6B9-81C3-4CF4-84A6-09ADD2BFBA22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEBACB6-26C4-480F-A170-44F4FCFF3FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="9432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>X</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A14" sqref="A14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -771,6 +774,43 @@
       </c>
       <c r="I13" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A14">
+        <f>STDEV(A2:A12)</f>
+        <v>3.3166247903553998</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:H14" si="1">STDEV(B2:B12)</f>
+        <v>2.0315681359258035</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>3.3166247903553998</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>2.0316567355016151</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>3.3166247903553998</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>2.0304236011236632</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>3.3166247903553998</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>2.0305785113876014</v>
+      </c>
+      <c r="I14" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1">
